--- a/eval.xlsx
+++ b/eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\digit-recognizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3292FA86-8E34-4611-9D7A-BDBC681DED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8A24C-0255-468C-A377-7735F8B84D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="0" windowWidth="8265" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Train accuracy</t>
   </si>
@@ -33,21 +33,9 @@
     <t>CNN</t>
   </si>
   <si>
-    <t>Kmeans</t>
-  </si>
-  <si>
-    <t>Inference time</t>
-  </si>
-  <si>
     <t>Best test accuracy</t>
   </si>
   <si>
-    <t>RandomForest (n_estimators = 100)</t>
-  </si>
-  <si>
-    <t>kNN (n_neighbors = 1)</t>
-  </si>
-  <si>
     <t>Val accuracy</t>
   </si>
   <si>
@@ -58,6 +46,37 @@
   </si>
   <si>
     <t>SVM (default settings)</t>
+  </si>
+  <si>
+    <t>Model size</t>
+  </si>
+  <si>
+    <t>kNN (Encoded input)</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Train time (sec)</t>
+  </si>
+  <si>
+    <t>Inference time (sec)</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>kNN (Raw input)
+- n_neighbors = 3</t>
+  </si>
+  <si>
+    <t>Random Forest (Raw input)
+- n_estimators = 101
+- min_sample_split = 9
+- min_sample_leaf = 3</t>
   </si>
 </sst>
 </file>
@@ -93,10 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,92 +400,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.46484375" customWidth="1"/>
+    <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="15.46484375" customWidth="1"/>
     <col min="3" max="3" width="16.265625" customWidth="1"/>
     <col min="4" max="4" width="16.1328125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.06640625" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.9698</v>
+      </c>
+      <c r="D14">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.995</v>
+      </c>
+      <c r="C16">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="D16">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E16">
+        <v>27.42</v>
+      </c>
+      <c r="F16">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="C17">
+        <v>0.9748</v>
+      </c>
+      <c r="D17">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E17">
+        <v>85.81</v>
+      </c>
+      <c r="F17">
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.97009999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.98850000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0.99209999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
+      <c r="D23">
+        <v>0.99199999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eval.xlsx
+++ b/eval.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\digit-recognizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\digit-recognizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8A24C-0255-468C-A377-7735F8B84D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,13 +44,7 @@
     <t>~99%</t>
   </si>
   <si>
-    <t>SVM (default settings)</t>
-  </si>
-  <si>
     <t>Model size</t>
-  </si>
-  <si>
-    <t>kNN (Encoded input)</t>
   </si>
   <si>
     <t>DATA</t>
@@ -78,11 +71,19 @@
 - min_sample_split = 9
 - min_sample_leaf = 3</t>
   </si>
+  <si>
+    <t>SVM (Raw input)
+- Default settings</t>
+  </si>
+  <si>
+    <t>kNN (Encoded input: 30 features)
+- n_neighbors = 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,40 +400,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.06640625" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -443,18 +444,18 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>0.98180000000000001</v>
@@ -472,15 +473,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0.995</v>
@@ -498,9 +507,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>6</v>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.98929999999999996</v>
@@ -518,15 +527,15 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
